--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd86-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd86-Ctla4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ctla4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>81.47348266666667</v>
+        <v>0.483405</v>
       </c>
       <c r="H2">
-        <v>244.420448</v>
+        <v>1.450215</v>
       </c>
       <c r="I2">
-        <v>0.3594530042390097</v>
+        <v>0.003094960828876145</v>
       </c>
       <c r="J2">
-        <v>0.3594530042390096</v>
+        <v>0.003094960828876144</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N2">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O2">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P2">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q2">
-        <v>5.322418202165334</v>
+        <v>0.06085456637</v>
       </c>
       <c r="R2">
-        <v>47.901763819488</v>
+        <v>0.54769109733</v>
       </c>
       <c r="S2">
-        <v>0.1149591936300718</v>
+        <v>0.003071239076656943</v>
       </c>
       <c r="T2">
-        <v>0.1149591936300718</v>
+        <v>0.003071239076656942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>81.47348266666667</v>
+        <v>0.483405</v>
       </c>
       <c r="H3">
-        <v>244.420448</v>
+        <v>1.450215</v>
       </c>
       <c r="I3">
-        <v>0.3594530042390097</v>
+        <v>0.003094960828876145</v>
       </c>
       <c r="J3">
-        <v>0.3594530042390096</v>
+        <v>0.003094960828876144</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N3">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O3">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P3">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q3">
-        <v>11.31965410343111</v>
+        <v>0.000470030795</v>
       </c>
       <c r="R3">
-        <v>101.87688693088</v>
+        <v>0.004230277155</v>
       </c>
       <c r="S3">
-        <v>0.2444938106089379</v>
+        <v>2.37217522192021E-05</v>
       </c>
       <c r="T3">
-        <v>0.2444938106089378</v>
+        <v>2.372175221920209E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.96196633333333</v>
+        <v>105.7018663333333</v>
       </c>
       <c r="H4">
-        <v>65.88589899999999</v>
+        <v>317.105599</v>
       </c>
       <c r="I4">
-        <v>0.09689403863844469</v>
+        <v>0.676747521934545</v>
       </c>
       <c r="J4">
-        <v>0.09689403863844469</v>
+        <v>0.6767475219345449</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N4">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O4">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P4">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q4">
-        <v>1.434709374657667</v>
+        <v>13.30652608105978</v>
       </c>
       <c r="R4">
-        <v>12.912384371919</v>
+        <v>119.758734729538</v>
       </c>
       <c r="S4">
-        <v>0.03098836403667976</v>
+        <v>0.6715604976334589</v>
       </c>
       <c r="T4">
-        <v>0.03098836403667976</v>
+        <v>0.6715604976334588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.96196633333333</v>
+        <v>105.7018663333333</v>
       </c>
       <c r="H5">
-        <v>65.88589899999999</v>
+        <v>317.105599</v>
       </c>
       <c r="I5">
-        <v>0.09689403863844469</v>
+        <v>0.676747521934545</v>
       </c>
       <c r="J5">
-        <v>0.09689403863844469</v>
+        <v>0.6767475219345449</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N5">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O5">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P5">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q5">
-        <v>3.051322395798889</v>
+        <v>0.1027774480314444</v>
       </c>
       <c r="R5">
-        <v>27.46190156219</v>
+        <v>0.9249970322829999</v>
       </c>
       <c r="S5">
-        <v>0.06590567460176493</v>
+        <v>0.005187024301086155</v>
       </c>
       <c r="T5">
-        <v>0.06590567460176491</v>
+        <v>0.005187024301086154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.2241746666667</v>
+        <v>18.83134933333333</v>
       </c>
       <c r="H6">
-        <v>369.672524</v>
+        <v>56.494048</v>
       </c>
       <c r="I6">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="J6">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N6">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O6">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P6">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q6">
-        <v>8.049865658449335</v>
+        <v>2.370628350641777</v>
       </c>
       <c r="R6">
-        <v>72.44879092604401</v>
+        <v>21.335655155776</v>
       </c>
       <c r="S6">
-        <v>0.1738694761996074</v>
+        <v>0.1196420722555848</v>
       </c>
       <c r="T6">
-        <v>0.1738694761996074</v>
+        <v>0.1196420722555848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.2241746666667</v>
+        <v>18.83134933333333</v>
       </c>
       <c r="H7">
-        <v>369.672524</v>
+        <v>56.494048</v>
       </c>
       <c r="I7">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="J7">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N7">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O7">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P7">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q7">
-        <v>17.12035608093778</v>
+        <v>0.01831034866844444</v>
       </c>
       <c r="R7">
-        <v>154.08320472844</v>
+        <v>0.164793138016</v>
       </c>
       <c r="S7">
-        <v>0.3697834809229383</v>
+        <v>0.0009240959502664843</v>
       </c>
       <c r="T7">
-        <v>0.3697834809229382</v>
+        <v>0.0009240959502664841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.17437066666666</v>
+      </c>
+      <c r="H8">
+        <v>93.523112</v>
+      </c>
+      <c r="I8">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="J8">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1258873333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.377662</v>
+      </c>
+      <c r="O8">
+        <v>0.9923353626973638</v>
+      </c>
+      <c r="P8">
+        <v>0.9923353626973638</v>
+      </c>
+      <c r="Q8">
+        <v>3.924458391571555</v>
+      </c>
+      <c r="R8">
+        <v>35.320125524144</v>
+      </c>
+      <c r="S8">
+        <v>0.1980615537316631</v>
+      </c>
+      <c r="T8">
+        <v>0.1980615537316631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.17437066666666</v>
+      </c>
+      <c r="H9">
+        <v>93.523112</v>
+      </c>
+      <c r="I9">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="J9">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.0009723333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.002917</v>
+      </c>
+      <c r="O9">
+        <v>0.007664637302636247</v>
+      </c>
+      <c r="P9">
+        <v>0.007664637302636246</v>
+      </c>
+      <c r="Q9">
+        <v>0.03031187974488889</v>
+      </c>
+      <c r="R9">
+        <v>0.272806917704</v>
+      </c>
+      <c r="S9">
+        <v>0.001529795299064405</v>
+      </c>
+      <c r="T9">
+        <v>0.001529795299064405</v>
       </c>
     </row>
   </sheetData>
